--- a/data/trans_dic/P8_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 20,18</t>
+          <t>7,39; 20,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 23,31</t>
+          <t>10,89; 22,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,26; 30,73</t>
+          <t>15,19; 29,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,49; 37,05</t>
+          <t>18,64; 35,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,11; 36,96</t>
+          <t>20,82; 37,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,58; 45,09</t>
+          <t>26,86; 45,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,45; 35,82</t>
+          <t>18,72; 35,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,27; 33,34</t>
+          <t>21,86; 33,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 25,94</t>
+          <t>15,48; 25,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,38; 32,12</t>
+          <t>20,47; 32,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,4; 29,55</t>
+          <t>18,82; 29,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,33; 31,68</t>
+          <t>22,31; 31,97</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,12; 12,94</t>
+          <t>8,11; 12,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,08; 18,52</t>
+          <t>12,34; 18,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 17,41</t>
+          <t>11,39; 17,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 18,04</t>
+          <t>12,09; 17,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 22,53</t>
+          <t>16,12; 22,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,04; 29,56</t>
+          <t>22,22; 29,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,34; 30,82</t>
+          <t>22,97; 30,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,05; 23,63</t>
+          <t>17,8; 23,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,79; 16,96</t>
+          <t>12,57; 16,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 23,05</t>
+          <t>18,16; 23,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,23</t>
+          <t>18,39; 22,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 20,19</t>
+          <t>16,05; 20,02</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,1; 13,34</t>
+          <t>9,24; 13,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,4</t>
+          <t>13,68; 18,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,63; 17,48</t>
+          <t>12,44; 17,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,95; 30,79</t>
+          <t>11,02; 31,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,62; 23,94</t>
+          <t>18,74; 24,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 27,49</t>
+          <t>21,68; 27,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,6; 25,93</t>
+          <t>20,75; 26,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,62; 23,85</t>
+          <t>19,76; 23,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 18,17</t>
+          <t>14,76; 17,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,47; 22,1</t>
+          <t>18,47; 22,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,06</t>
+          <t>17,26; 20,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,32; 25,89</t>
+          <t>16,37; 26,01</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,7</t>
+          <t>9,97; 15,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,06</t>
+          <t>9,75; 14,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,48</t>
+          <t>10,47; 15,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,2; 21,24</t>
+          <t>15,32; 21,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,13; 27,66</t>
+          <t>21,31; 27,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,61; 26,73</t>
+          <t>20,61; 26,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,03; 24,12</t>
+          <t>17,74; 23,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,57; 22,18</t>
+          <t>12,45; 22,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 20,49</t>
+          <t>16,33; 20,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 20,05</t>
+          <t>16,07; 20,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,86; 18,83</t>
+          <t>14,96; 19,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 20,57</t>
+          <t>14,54; 20,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,84; 12,68</t>
+          <t>9,03; 12,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,6; 17,78</t>
+          <t>12,56; 17,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,44; 14,82</t>
+          <t>10,52; 14,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,3</t>
+          <t>12,82; 17,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,77; 22,65</t>
+          <t>17,76; 22,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,09; 28,93</t>
+          <t>23,3; 28,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,83; 23,15</t>
+          <t>17,97; 22,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,78; 26,59</t>
+          <t>21,82; 26,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,18; 17,33</t>
+          <t>14,17; 17,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,77; 22,6</t>
+          <t>18,89; 22,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,92; 18,59</t>
+          <t>15,01; 18,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 21,48</t>
+          <t>18,23; 21,59</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,13; 12,3</t>
+          <t>10,1; 12,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,88</t>
+          <t>13,43; 16,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,09</t>
+          <t>12,67; 15,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,43; 20,74</t>
+          <t>14,46; 21,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,21; 23,05</t>
+          <t>19,99; 22,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,93; 26,89</t>
+          <t>23,82; 26,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,15; 24,22</t>
+          <t>21,11; 24,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,59; 23,12</t>
+          <t>19,35; 23,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,34</t>
+          <t>15,53; 17,29</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,24; 21,19</t>
+          <t>19,02; 21,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,31; 19,35</t>
+          <t>17,43; 19,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,07; 21,26</t>
+          <t>18,13; 21,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 20,29</t>
+          <t>6,37; 19,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,89; 22,76</t>
+          <t>10,57; 22,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,19; 29,63</t>
+          <t>15,28; 31,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,82; 37,49</t>
+          <t>21,11; 36,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,86; 45,54</t>
+          <t>26,61; 45,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,72; 35,11</t>
+          <t>18,37; 35,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,48; 25,75</t>
+          <t>15,21; 25,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,47; 32,17</t>
+          <t>20,56; 32,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,82; 29,64</t>
+          <t>19,02; 30,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 12,91</t>
+          <t>7,93; 12,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 18,64</t>
+          <t>12,11; 18,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,39; 17,63</t>
+          <t>11,67; 17,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 22,65</t>
+          <t>16,2; 22,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,22; 29,91</t>
+          <t>22,36; 29,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,97; 30,43</t>
+          <t>23,53; 30,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,78</t>
+          <t>13,01; 16,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,16; 23,34</t>
+          <t>18,28; 23,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 22,95</t>
+          <t>18,38; 22,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 13,44</t>
+          <t>9,36; 13,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,35</t>
+          <t>13,48; 18,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,44; 17,13</t>
+          <t>12,77; 17,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,74; 24,19</t>
+          <t>18,31; 24,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,68; 27,58</t>
+          <t>21,82; 27,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 26,27</t>
+          <t>20,43; 26,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,76; 17,88</t>
+          <t>14,62; 18,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,47; 22,08</t>
+          <t>18,49; 22,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,26; 20,97</t>
+          <t>17,43; 21,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,97; 15,07</t>
+          <t>9,9; 14,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,96</t>
+          <t>9,58; 14,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,47; 15,42</t>
+          <t>10,34; 15,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 27,83</t>
+          <t>21,22; 27,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,61; 26,47</t>
+          <t>20,56; 27,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 23,88</t>
+          <t>17,96; 24,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,33; 20,6</t>
+          <t>16,35; 20,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 20,27</t>
+          <t>15,79; 19,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 19,09</t>
+          <t>14,96; 19,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,03; 12,65</t>
+          <t>8,87; 12,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,56; 17,42</t>
+          <t>12,39; 17,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,52; 14,77</t>
+          <t>10,54; 14,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,76; 22,84</t>
+          <t>17,6; 22,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,3; 28,94</t>
+          <t>23,11; 28,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,97; 22,91</t>
+          <t>18,04; 23,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,17; 17,29</t>
+          <t>14,03; 17,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 22,66</t>
+          <t>18,74; 22,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,01; 18,75</t>
+          <t>14,94; 18,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,1; 12,34</t>
+          <t>10,25; 12,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,43; 16,08</t>
+          <t>13,34; 16,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,67; 15,03</t>
+          <t>12,81; 15,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,99; 22,83</t>
+          <t>19,97; 22,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,82; 26,69</t>
+          <t>23,79; 26,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,11; 24,14</t>
+          <t>21,24; 24,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 17,29</t>
+          <t>15,48; 17,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,02; 21,05</t>
+          <t>19,07; 21,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,43; 19,35</t>
+          <t>17,39; 19,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P8_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 19,72</t>
+          <t>6,91; 20,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,57; 22,44</t>
+          <t>10,59; 23,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,28; 31,26</t>
+          <t>15,26; 30,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,64; 35,59</t>
+          <t>18,49; 37,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,11; 36,42</t>
+          <t>21,11; 36,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,61; 45,62</t>
+          <t>26,58; 45,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,37; 35,2</t>
+          <t>18,45; 35,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,86; 33,55</t>
+          <t>21,27; 33,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,21; 25,79</t>
+          <t>15,55; 25,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 32,74</t>
+          <t>20,38; 32,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,02; 30,6</t>
+          <t>18,4; 29,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,31; 31,97</t>
+          <t>22,33; 31,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,93</t>
+          <t>8,12; 12,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,11; 18,67</t>
+          <t>12,08; 18,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 17,8</t>
+          <t>11,52; 17,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,09; 17,94</t>
+          <t>12,22; 18,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,2; 22,8</t>
+          <t>16,19; 22,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,36; 29,3</t>
+          <t>22,04; 29,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,53; 30,85</t>
+          <t>23,34; 30,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,8; 23,62</t>
+          <t>18,05; 23,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,01; 16,93</t>
+          <t>12,79; 16,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,28; 23,32</t>
+          <t>18,23; 23,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,38; 22,99</t>
+          <t>18,46; 23,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,05; 20,02</t>
+          <t>16,06; 20,19</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,42</t>
+          <t>9,1; 13,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,48; 18,35</t>
+          <t>13,55; 18,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,77; 17,11</t>
+          <t>12,63; 17,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 31,16</t>
+          <t>10,95; 30,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,31; 24,12</t>
+          <t>18,62; 23,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,82; 27,44</t>
+          <t>21,69; 27,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,43; 26,12</t>
+          <t>20,6; 25,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,76; 23,92</t>
+          <t>19,62; 23,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,62; 18,04</t>
+          <t>14,74; 18,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,49; 22,05</t>
+          <t>18,47; 22,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 21,0</t>
+          <t>17,49; 21,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 26,01</t>
+          <t>16,32; 25,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 14,55</t>
+          <t>9,75; 14,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 14,7</t>
+          <t>9,9; 15,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,34; 15,38</t>
+          <t>10,59; 15,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 21,28</t>
+          <t>15,2; 21,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,22; 27,69</t>
+          <t>21,13; 27,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,56; 27,09</t>
+          <t>20,61; 26,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 24,07</t>
+          <t>18,03; 24,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,45; 22,35</t>
+          <t>11,57; 22,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 20,71</t>
+          <t>16,16; 20,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,79; 19,93</t>
+          <t>15,81; 20,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 19,07</t>
+          <t>14,86; 18,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 20,74</t>
+          <t>14,28; 20,57</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 12,63</t>
+          <t>8,84; 12,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,39; 17,23</t>
+          <t>12,6; 17,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,54; 14,81</t>
+          <t>10,44; 14,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,82; 17,24</t>
+          <t>12,96; 17,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,6; 22,61</t>
+          <t>17,77; 22,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,11; 28,7</t>
+          <t>23,09; 28,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,04; 23,34</t>
+          <t>17,83; 23,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,82; 26,69</t>
+          <t>21,78; 26,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,03; 17,24</t>
+          <t>14,18; 17,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,74; 22,35</t>
+          <t>18,77; 22,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,94; 18,52</t>
+          <t>14,92; 18,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,23; 21,59</t>
+          <t>18,27; 21,48</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,25; 12,43</t>
+          <t>10,13; 12,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,34; 16,0</t>
+          <t>13,31; 15,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,81; 15,11</t>
+          <t>12,77; 15,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,46; 21,12</t>
+          <t>14,43; 20,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,97; 22,75</t>
+          <t>20,21; 23,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,79; 26,93</t>
+          <t>23,93; 26,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,24; 24,12</t>
+          <t>21,15; 24,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,35; 23,29</t>
+          <t>19,59; 23,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,27</t>
+          <t>15,48; 17,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,07; 21,06</t>
+          <t>19,24; 21,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,39; 19,28</t>
+          <t>17,31; 19,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,13; 21,32</t>
+          <t>18,07; 21,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,36%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>18,95%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 20,18</t>
+          <t>8,44; 13,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 23,31</t>
+          <t>12,61; 18,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,26; 30,73</t>
+          <t>12,77; 18,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,49; 37,05</t>
+          <t>13,86; 19,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,11; 36,96</t>
+          <t>17,93; 24,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,58; 45,09</t>
+          <t>24,03; 31,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,45; 35,82</t>
+          <t>23,17; 30,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,27; 33,34</t>
+          <t>16,94; 23,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 25,94</t>
+          <t>13,89; 17,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,38; 32,12</t>
+          <t>19,16; 23,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,4; 29,55</t>
+          <t>19,06; 23,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,33; 31,68</t>
+          <t>16,69; 20,84</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>26,04%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,12; 12,94</t>
+          <t>9,1; 13,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,08; 18,52</t>
+          <t>13,55; 18,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 17,41</t>
+          <t>12,63; 17,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 18,04</t>
+          <t>10,59; 61,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 22,53</t>
+          <t>18,62; 23,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,04; 29,56</t>
+          <t>21,69; 27,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,34; 30,82</t>
+          <t>20,6; 25,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,05; 23,63</t>
+          <t>19,63; 23,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,79; 16,96</t>
+          <t>14,74; 18,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,23; 23,05</t>
+          <t>18,47; 22,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,23</t>
+          <t>17,49; 21,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 20,19</t>
+          <t>16,04; 49,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>16,69%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,1; 13,34</t>
+          <t>9,75; 14,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,4</t>
+          <t>9,9; 15,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,63; 17,48</t>
+          <t>10,59; 15,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,95; 30,79</t>
+          <t>14,85; 20,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,62; 23,94</t>
+          <t>21,13; 27,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 27,49</t>
+          <t>20,61; 26,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,6; 25,93</t>
+          <t>18,03; 24,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,62; 23,85</t>
+          <t>8,11; 21,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 18,17</t>
+          <t>16,16; 20,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,47; 22,1</t>
+          <t>15,81; 20,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,06</t>
+          <t>14,86; 18,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,32; 25,89</t>
+          <t>10,73; 19,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>18,86%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,7</t>
+          <t>8,84; 12,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,06</t>
+          <t>12,6; 17,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,48</t>
+          <t>10,44; 14,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,2; 21,24</t>
+          <t>12,69; 17,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,13; 27,66</t>
+          <t>17,77; 22,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,61; 26,73</t>
+          <t>23,09; 28,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,03; 24,12</t>
+          <t>17,83; 23,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,57; 22,18</t>
+          <t>18,05; 25,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 20,49</t>
+          <t>14,18; 17,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 20,05</t>
+          <t>18,77; 22,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,86; 18,83</t>
+          <t>14,92; 18,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 20,57</t>
+          <t>16,64; 20,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>20,53%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,84; 12,68</t>
+          <t>10,13; 12,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,6; 17,78</t>
+          <t>13,31; 15,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,44; 14,82</t>
+          <t>12,77; 15,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,3</t>
+          <t>14,23; 38,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,77; 22,65</t>
+          <t>20,21; 23,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,09; 28,93</t>
+          <t>23,93; 26,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,83; 23,15</t>
+          <t>21,15; 24,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,78; 26,59</t>
+          <t>16,33; 22,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,18; 17,33</t>
+          <t>15,48; 17,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,77; 22,6</t>
+          <t>19,24; 21,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,92; 18,59</t>
+          <t>17,31; 19,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 21,48</t>
+          <t>17,23; 31,67</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>11,16%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>14,63%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13,86%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>16,29%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>21,43%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>25,33%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>22,63%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>21,81%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>16,37%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>20,08%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>18,34%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>19,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>10,13; 12,3</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>13,31; 15,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>12,77; 15,09</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>14,43; 20,74</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>20,21; 23,05</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>23,93; 26,89</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>21,15; 24,22</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>19,59; 23,12</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>15,48; 17,34</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>19,24; 21,19</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>17,31; 19,35</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>18,07; 21,26</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P8_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,03</t>
+          <t>8,55; 13,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,61; 18,24</t>
+          <t>12,73; 17,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,77; 18,49</t>
+          <t>12,93; 18,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,86; 19,51</t>
+          <t>13,67; 19,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,93; 24,12</t>
+          <t>17,92; 23,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,03; 31,07</t>
+          <t>24,33; 31,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,17; 30,16</t>
+          <t>23,33; 30,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,94; 23,83</t>
+          <t>16,65; 23,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,89; 17,64</t>
+          <t>13,9; 17,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,16; 23,58</t>
+          <t>19,06; 23,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,06; 23,69</t>
+          <t>18,99; 23,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,69; 20,84</t>
+          <t>16,34; 20,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 13,34</t>
+          <t>9,24; 13,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,4</t>
+          <t>13,72; 18,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,63; 17,48</t>
+          <t>12,57; 17,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,59; 61,77</t>
+          <t>10,52; 61,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,62; 23,94</t>
+          <t>18,73; 23,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,69; 27,49</t>
+          <t>21,83; 27,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,6; 25,93</t>
+          <t>20,74; 26,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,63; 23,82</t>
+          <t>19,8; 23,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,74; 18,17</t>
+          <t>14,74; 18,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,47; 22,1</t>
+          <t>18,52; 22,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,06</t>
+          <t>17,12; 20,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,04; 49,36</t>
+          <t>16,26; 49,68</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,7</t>
+          <t>9,94; 14,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,06</t>
+          <t>9,79; 14,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,48</t>
+          <t>10,54; 15,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 20,95</t>
+          <t>14,86; 21,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,13; 27,66</t>
+          <t>21,5; 27,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,61; 26,73</t>
+          <t>20,63; 26,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,03; 24,12</t>
+          <t>17,87; 24,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 21,25</t>
+          <t>8,48; 21,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,16; 20,49</t>
+          <t>16,35; 20,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 20,05</t>
+          <t>15,87; 20,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,86; 18,83</t>
+          <t>15,02; 19,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 19,76</t>
+          <t>11,59; 19,72</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 12,68</t>
+          <t>8,82; 12,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,6; 17,78</t>
+          <t>12,38; 17,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,44; 14,82</t>
+          <t>10,46; 14,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,69; 17,03</t>
+          <t>12,59; 16,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,77; 22,65</t>
+          <t>17,75; 22,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,09; 28,93</t>
+          <t>23,49; 28,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 23,15</t>
+          <t>18,19; 23,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,05; 25,11</t>
+          <t>17,99; 25,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,18; 17,33</t>
+          <t>13,97; 17,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,77; 22,6</t>
+          <t>18,87; 22,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,92; 18,59</t>
+          <t>15,06; 18,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 20,42</t>
+          <t>16,47; 20,66</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,13; 12,3</t>
+          <t>10,18; 12,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,88</t>
+          <t>13,41; 15,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,09</t>
+          <t>12,78; 15,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,23; 38,31</t>
+          <t>14,31; 38,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,21; 23,05</t>
+          <t>20,0; 22,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,93; 26,89</t>
+          <t>23,87; 26,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,15; 24,22</t>
+          <t>21,13; 24,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,33; 22,19</t>
+          <t>16,68; 22,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,34</t>
+          <t>15,49; 17,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,24; 21,19</t>
+          <t>19,16; 21,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,31; 19,35</t>
+          <t>17,45; 19,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,23; 31,67</t>
+          <t>17,13; 30,76</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación a hacer esfuerzos moderados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>73883</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>108128</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>104591</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>104295</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>143118</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>191707</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>180308</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>153577</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>217000</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>299835</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>284900</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>257873</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>59341; 91706</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>89544; 126283</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>87274; 125862</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>86848; 122812</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>123377; 163002</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>169595; 217017</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>156950; 204129</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>120752; 173355</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>192214; 245874</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>266875; 330357</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>255907; 315019</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>222418; 285478</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>107978</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>162158</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>150856</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>351526</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>206069</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>253008</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>244577</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>208630</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>314047</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>415166</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>395432</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>560156</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>88857; 129368</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>139713; 190183</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>128519; 175167</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>125496; 732524</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>181372; 231701</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>225363; 280025</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>216250; 274198</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>189687; 227315</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>284492; 349389</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>379696; 456787</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>353608; 431280</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>349744; 1068557</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>82856</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>91361</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>97623</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>124876</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>166979</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>183268</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>163343</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>148502</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>249835</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>274629</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>260966</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>273377</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>67453; 101058</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>74180; 112818</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>80065; 118642</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>104749; 147963</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>147021; 190336</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>160326; 207938</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>140308; 189390</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>79173; 201976</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>222768; 279910</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>243565; 307071</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>232038; 294136</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>189798; 322960</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>101047</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>139740</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>117357</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>136111</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>207850</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>273419</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>213783</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>245155</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>308897</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>413159</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>331139</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>381266</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>83067; 119578</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>117314; 162937</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>98099; 138261</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>116709; 157081</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>184331; 236428</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>247123; 304363</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>189898; 242210</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>197019; 274765</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>276775; 340499</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>377403; 451731</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>298437; 368388</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>333065; 417753</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>365764</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>501388</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>470427</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>716808</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>724015</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>901402</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>802011</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>755865</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1089779</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1402790</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1272438</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1472673</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>333464; 400371</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>459556; 544870</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>433884; 512592</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>494994; 1322586</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>675730; 775730</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>849247; 954911</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>748953; 855052</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>619280; 823824</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1030860; 1155726</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1338548; 1480716</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1211092; 1343531</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1228718; 2206264</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>